--- a/alberta-activity-index-data-table.xlsx
+++ b/alberta-activity-index-data-table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GOA.ds.gov.ab.ca\SHARED\TBF\EFP\ERF\Economics\DATALIBRARY_Datasets\AAX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\EFP\ERF\Economics\DATALIBRARY_Datasets\AAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -704,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L495"/>
+  <dimension ref="A1:L496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B495"/>
+      <selection activeCell="A494" sqref="A494:A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5698,7 +5698,7 @@
         <v>43466</v>
       </c>
       <c r="B458" s="2">
-        <v>280.53188159809952</v>
+        <v>281.36831704738029</v>
       </c>
       <c r="L458" s="2"/>
     </row>
@@ -5707,7 +5707,7 @@
         <v>43497</v>
       </c>
       <c r="B459" s="2">
-        <v>278.00788688116796</v>
+        <v>277.90956560043605</v>
       </c>
       <c r="L459" s="2"/>
     </row>
@@ -5716,7 +5716,7 @@
         <v>43525</v>
       </c>
       <c r="B460" s="2">
-        <v>282.33636439904359</v>
+        <v>281.02855727550872</v>
       </c>
       <c r="L460" s="2"/>
     </row>
@@ -5725,7 +5725,7 @@
         <v>43556</v>
       </c>
       <c r="B461" s="2">
-        <v>289.97601507919694</v>
+        <v>290.26325636352641</v>
       </c>
       <c r="L461" s="2"/>
     </row>
@@ -5734,7 +5734,7 @@
         <v>43586</v>
       </c>
       <c r="B462" s="2">
-        <v>288.69494528716808</v>
+        <v>289.42074346169113</v>
       </c>
       <c r="L462" s="2"/>
     </row>
@@ -5743,7 +5743,7 @@
         <v>43617</v>
       </c>
       <c r="B463" s="2">
-        <v>286.15421967663968</v>
+        <v>285.81176579205351</v>
       </c>
       <c r="L463" s="2"/>
     </row>
@@ -5752,7 +5752,7 @@
         <v>43647</v>
       </c>
       <c r="B464" s="2">
-        <v>285.34710020923393</v>
+        <v>285.28662445514794</v>
       </c>
       <c r="L464" s="2"/>
     </row>
@@ -5761,7 +5761,7 @@
         <v>43678</v>
       </c>
       <c r="B465" s="2">
-        <v>284.13923214099628</v>
+        <v>285.03729792756661</v>
       </c>
       <c r="L465" s="2"/>
     </row>
@@ -5770,7 +5770,7 @@
         <v>43709</v>
       </c>
       <c r="B466" s="2">
-        <v>283.74999218070695</v>
+        <v>284.40564827506364</v>
       </c>
       <c r="L466" s="2"/>
     </row>
@@ -5779,7 +5779,7 @@
         <v>43739</v>
       </c>
       <c r="B467" s="2">
-        <v>282.81532775805562</v>
+        <v>282.77069530437257</v>
       </c>
       <c r="L467" s="2"/>
     </row>
@@ -5788,7 +5788,7 @@
         <v>43770</v>
       </c>
       <c r="B468" s="2">
-        <v>279.5782336124945</v>
+        <v>279.00679506499972</v>
       </c>
       <c r="L468" s="2"/>
     </row>
@@ -5797,7 +5797,7 @@
         <v>43800</v>
       </c>
       <c r="B469" s="2">
-        <v>282.64296758182581</v>
+        <v>282.43473729815247</v>
       </c>
       <c r="L469" s="2"/>
     </row>
@@ -5806,7 +5806,7 @@
         <v>43831</v>
       </c>
       <c r="B470" s="2">
-        <v>281.30359744217395</v>
+        <v>281.71195254443666</v>
       </c>
       <c r="L470" s="2"/>
     </row>
@@ -5815,7 +5815,7 @@
         <v>43862</v>
       </c>
       <c r="B471" s="2">
-        <v>284.9472858657299</v>
+        <v>284.41025732366842</v>
       </c>
       <c r="L471" s="2"/>
     </row>
@@ -5824,7 +5824,7 @@
         <v>43891</v>
       </c>
       <c r="B472" s="2">
-        <v>269.59713337928173</v>
+        <v>266.2803817225859</v>
       </c>
       <c r="L472" s="2"/>
     </row>
@@ -5833,7 +5833,7 @@
         <v>43922</v>
       </c>
       <c r="B473" s="2">
-        <v>248.25157280715538</v>
+        <v>245.46770608508595</v>
       </c>
       <c r="L473" s="2"/>
     </row>
@@ -5842,7 +5842,7 @@
         <v>43952</v>
       </c>
       <c r="B474" s="2">
-        <v>250.68084607220266</v>
+        <v>248.73612503438557</v>
       </c>
       <c r="L474" s="2"/>
     </row>
@@ -5851,7 +5851,7 @@
         <v>43983</v>
       </c>
       <c r="B475" s="2">
-        <v>258.24521781512613</v>
+        <v>255.51561310063573</v>
       </c>
       <c r="L475" s="2"/>
     </row>
@@ -5860,7 +5860,7 @@
         <v>44013</v>
       </c>
       <c r="B476" s="2">
-        <v>268.41226519774847</v>
+        <v>266.44571982202604</v>
       </c>
       <c r="L476" s="2"/>
     </row>
@@ -5869,7 +5869,7 @@
         <v>44044</v>
       </c>
       <c r="B477" s="2">
-        <v>264.51130949513049</v>
+        <v>263.86988140833733</v>
       </c>
       <c r="L477" s="2"/>
     </row>
@@ -5878,7 +5878,7 @@
         <v>44075</v>
       </c>
       <c r="B478" s="2">
-        <v>272.16106852841239</v>
+        <v>271.96057151915363</v>
       </c>
       <c r="L478" s="2"/>
     </row>
@@ -5887,7 +5887,7 @@
         <v>44105</v>
       </c>
       <c r="B479" s="2">
-        <v>274.05053634781513</v>
+        <v>273.03489464354976</v>
       </c>
       <c r="L479" s="2"/>
     </row>
@@ -5896,7 +5896,7 @@
         <v>44136</v>
       </c>
       <c r="B480" s="2">
-        <v>275.9831782273676</v>
+        <v>274.45875831531743</v>
       </c>
       <c r="L480" s="2"/>
     </row>
@@ -5905,7 +5905,7 @@
         <v>44166</v>
       </c>
       <c r="B481" s="2">
-        <v>278.80229944909155</v>
+        <v>278.15081183843665</v>
       </c>
       <c r="L481" s="2"/>
     </row>
@@ -5914,7 +5914,7 @@
         <v>44197</v>
       </c>
       <c r="B482" s="2">
-        <v>285.82283590994683</v>
+        <v>284.83096763655669</v>
       </c>
       <c r="L482" s="2"/>
     </row>
@@ -5923,7 +5923,7 @@
         <v>44228</v>
       </c>
       <c r="B483" s="2">
-        <v>287.52265793698683</v>
+        <v>284.62574435174707</v>
       </c>
       <c r="L483" s="2"/>
     </row>
@@ -5932,7 +5932,7 @@
         <v>44256</v>
       </c>
       <c r="B484" s="2">
-        <v>292.2217342928065</v>
+        <v>288.5888350727418</v>
       </c>
       <c r="L484" s="2"/>
     </row>
@@ -5941,7 +5941,7 @@
         <v>44287</v>
       </c>
       <c r="B485" s="2">
-        <v>295.28621720756155</v>
+        <v>293.4127341178006</v>
       </c>
       <c r="L485" s="2"/>
     </row>
@@ -5950,7 +5950,7 @@
         <v>44317</v>
       </c>
       <c r="B486" s="2">
-        <v>293.20358894919343</v>
+        <v>291.89663111320607</v>
       </c>
       <c r="L486" s="2"/>
     </row>
@@ -5959,7 +5959,7 @@
         <v>44348</v>
       </c>
       <c r="B487" s="2">
-        <v>293.82001523726785</v>
+        <v>291.87490174553142</v>
       </c>
       <c r="L487" s="2"/>
     </row>
@@ -5968,7 +5968,7 @@
         <v>44378</v>
       </c>
       <c r="B488" s="2">
-        <v>293.18086637190066</v>
+        <v>291.58084030416865</v>
       </c>
       <c r="L488" s="2"/>
     </row>
@@ -5977,7 +5977,7 @@
         <v>44409</v>
       </c>
       <c r="B489" s="2">
-        <v>291.08713096581948</v>
+        <v>289.75092850384902</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
@@ -5985,7 +5985,7 @@
         <v>44440</v>
       </c>
       <c r="B490" s="2">
-        <v>291.50094725154622</v>
+        <v>290.35423030504086</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
         <v>44470</v>
       </c>
       <c r="B491" s="2">
-        <v>294.05158520091328</v>
+        <v>293.06793818963217</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>44501</v>
       </c>
       <c r="B492" s="2">
-        <v>300.0784202033056</v>
+        <v>299.96932027219606</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>44531</v>
       </c>
       <c r="B493" s="2">
-        <v>296.08641972890632</v>
+        <v>295.24756332697172</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.3">
@@ -6017,7 +6017,7 @@
         <v>44562</v>
       </c>
       <c r="B494" s="2">
-        <v>298.0203370565157</v>
+        <v>297.4485534917456</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.3">
@@ -6025,7 +6025,15 @@
         <v>44593</v>
       </c>
       <c r="B495" s="2">
-        <v>302.32347133815864</v>
+        <v>302.05763222940783</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B496" s="2">
+        <v>303.36753092449726</v>
       </c>
     </row>
   </sheetData>
